--- a/Instances/data(5-20).xlsx
+++ b/Instances/data(5-20).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11659\Desktop\UMich\2021Fall\IOE591\Final\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11659\Desktop\UMich\2021Fall\IOE591\Final\Code\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81B4696-2E33-4DA4-A044-1906D1D1F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BAA5A0-0C4E-45A1-AEE3-840DEA68B8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="4080" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand" sheetId="2" r:id="rId1"/>
@@ -695,7 +695,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,8 +722,8 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>12*60</f>
-        <v>720</v>
+        <f>17*60</f>
+        <v>1020</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -737,8 +737,8 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">12*60</f>
-        <v>720</v>
+        <f t="shared" ref="C3:C11" si="0">17*60</f>
+        <v>1020</v>
       </c>
       <c r="D3">
         <v>120</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="D4">
         <v>120</v>
@@ -768,7 +768,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="D6">
         <v>120</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="D7">
         <v>120</v>
@@ -813,7 +813,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="D8">
         <v>120</v>
@@ -828,7 +828,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="D9">
         <v>120</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="D10">
         <v>120</v>
@@ -858,7 +858,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="D11">
         <v>120</v>
@@ -876,7 +876,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1107,11 +1107,11 @@
         <v>42.192288400000002</v>
       </c>
       <c r="D9">
-        <v>997</v>
+        <v>797</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1027</v>
+        <v>827</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
